--- a/MultiReports.xlsx
+++ b/MultiReports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus 40\Documents\GitHub\SNAPTEST06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DD72EF-18B8-49D6-9D1E-9F9A95709931}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2794B3BE-779D-49AF-A76D-9D44A130AC87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="105">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -715,7 +715,7 @@
   <dimension ref="A1:K193"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J105" sqref="J105"/>
+      <selection activeCell="H184" sqref="H184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2792,7 +2792,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F177" t="s">
         <v>21</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F178" t="s">
         <v>24</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F179" t="s">
         <v>27</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F180" t="s">
         <v>30</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F181" t="s">
         <v>33</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F182" t="s">
         <v>36</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F183" t="s">
         <v>40</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>101</v>
       </c>
@@ -2882,8 +2882,11 @@
       <c r="H184" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I184" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F185" t="s">
         <v>16</v>
       </c>
@@ -2894,7 +2897,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F186" t="s">
         <v>19</v>
       </c>
@@ -2905,7 +2908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F187" t="s">
         <v>21</v>
       </c>
@@ -2916,7 +2919,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F188" t="s">
         <v>24</v>
       </c>
@@ -2927,7 +2930,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F189" t="s">
         <v>27</v>
       </c>
@@ -2938,7 +2941,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F190" t="s">
         <v>30</v>
       </c>
@@ -2949,7 +2952,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F191" t="s">
         <v>33</v>
       </c>
@@ -2960,7 +2963,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F192" t="s">
         <v>36</v>
       </c>
